--- a/monthly_date.xlsx
+++ b/monthly_date.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WataruHirose\Desktop\一時避難用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apworkspace-my.sharepoint.com/personal/ivan_cheung_arrowpointfund_com/Documents/Documents/arrowpoint/winter/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69135DD7-9D86-43BF-AC89-D638C2B16CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{69135DD7-9D86-43BF-AC89-D638C2B16CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C7241D-66D5-4C6E-B744-0F9B0BCBC66C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月次公表日" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="上場会社マスタ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="144">
   <si>
     <t>PPIH</t>
     <phoneticPr fontId="5"/>
@@ -807,6 +811,12 @@
       <t>ゲツヨウビ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -817,7 +827,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -830,7 +840,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1685,6 +1695,7 @@
     <cellStyle name="60% - アクセント 4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - アクセント 5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="60% - アクセント 6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="アクセント 1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="アクセント 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="アクセント 3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
@@ -1698,22 +1709,21 @@
     <cellStyle name="ハイパーリンク 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="メモ 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="リンク セル 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="入力 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="出力 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="悪い 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="計算 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="警告文 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="標準 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="良い 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="見出し 1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="見出し 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="見出し 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="見出し 4 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="計算 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="説明文 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="警告文 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="集計 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="出力 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="説明文 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="入力 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="標準_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="良い 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1726,6 +1736,420 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...3507055564</v>
+        <stp/>
+        <stp>BDP|18083475014624507367</stp>
+        <tr r="A10" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4103571652</v>
+        <stp/>
+        <stp>BDP|14812490795736493557</stp>
+        <tr r="A54" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3655197983</v>
+        <stp/>
+        <stp>BDP|12744499455529794147</stp>
+        <tr r="A61" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3687659971</v>
+        <stp/>
+        <stp>BDP|14044835812962581457</stp>
+        <tr r="A63" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4008707668</v>
+        <stp/>
+        <stp>BDP|14649196029856330999</stp>
+        <tr r="A43" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3561379823</v>
+        <stp/>
+        <stp>BDP|16525854230382120724</stp>
+        <tr r="A37" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2445638983</v>
+        <stp/>
+        <stp>BDP|11407861001459124988</stp>
+        <tr r="A50" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1598876600</v>
+        <stp/>
+        <stp>BDP|15566191380037797274</stp>
+        <tr r="A31" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1109702912</v>
+        <stp/>
+        <stp>BDP|16496014007271893911</stp>
+        <tr r="A20" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3212631521</v>
+        <stp/>
+        <stp>BDP|12213626047508210652</stp>
+        <tr r="A12" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...805568718</v>
+        <stp/>
+        <stp>BDP|10471830480747203896</stp>
+        <tr r="A13" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3846379814</v>
+        <stp/>
+        <stp>BDP|16602492221879451594</stp>
+        <tr r="A7" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1296011620</v>
+        <stp/>
+        <stp>BDP|11508101779802223827</stp>
+        <tr r="A58" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3649032284</v>
+        <stp/>
+        <stp>BDP|12030176234668942597</stp>
+        <tr r="A41" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...779511138</v>
+        <stp/>
+        <stp>BDP|12838893093347392684</stp>
+        <tr r="A44" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1308654656</v>
+        <stp/>
+        <stp>BDP|14265706845320162581</stp>
+        <tr r="A11" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3701046834</v>
+        <stp/>
+        <stp>BDP|13073799924670139505</stp>
+        <tr r="A21" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3112818626</v>
+        <stp/>
+        <stp>BDP|18392705351339731099</stp>
+        <tr r="A33" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3774025600</v>
+        <stp/>
+        <stp>BDP|17357052608086525092</stp>
+        <tr r="A29" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2061493410</v>
+        <stp/>
+        <stp>BDP|16670582688733498957</stp>
+        <tr r="A45" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1041025928</v>
+        <stp/>
+        <stp>BDP|17848846180165275392</stp>
+        <tr r="A64" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1784913833</v>
+        <stp/>
+        <stp>BDP|14561676242356162630</stp>
+        <tr r="A42" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2750937951</v>
+        <stp/>
+        <stp>BDP|18030463608118610300</stp>
+        <tr r="A51" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4162689366</v>
+        <stp/>
+        <stp>BDP|16379611668154623645</stp>
+        <tr r="A26" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...913489090</v>
+        <stp/>
+        <stp>BDP|12044760646082345709</stp>
+        <tr r="A25" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3826311214</v>
+        <stp/>
+        <stp>BDP|11127784051361459790</stp>
+        <tr r="A30" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2461601759</v>
+        <stp/>
+        <stp>BDP|14966291489769729297</stp>
+        <tr r="A52" s="2"/>
+      </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
+      <tp t="s">
+        <v>#N/A Requesting Data...2835947829</v>
+        <stp/>
+        <stp>BDP|8736234751562823175</stp>
+        <tr r="A22" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2018945103</v>
+        <stp/>
+        <stp>BDP|9344155389534466869</stp>
+        <tr r="A9" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3455608822</v>
+        <stp/>
+        <stp>BDP|4475682470950788967</stp>
+        <tr r="A17" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2646070211</v>
+        <stp/>
+        <stp>BDP|9756712153372088512</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3399837814</v>
+        <stp/>
+        <stp>BDP|7070149180572717184</stp>
+        <tr r="A59" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2975337687</v>
+        <stp/>
+        <stp>BDP|9669477189830481884</stp>
+        <tr r="A16" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3138272087</v>
+        <stp/>
+        <stp>BDP|5651248673375356870</stp>
+        <tr r="A48" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2642904987</v>
+        <stp/>
+        <stp>BDP|9149916515707517832</stp>
+        <tr r="A24" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4154965525</v>
+        <stp/>
+        <stp>BDP|4470590533068760245</stp>
+        <tr r="A28" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3813699681</v>
+        <stp/>
+        <stp>BDP|2600966883259415264</stp>
+        <tr r="A56" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2970194212</v>
+        <stp/>
+        <stp>BDP|3433436396086237110</stp>
+        <tr r="A49" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3062394498</v>
+        <stp/>
+        <stp>BDP|8516368140744822152</stp>
+        <tr r="A6" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...910061943</v>
+        <stp/>
+        <stp>BDP|8792799607055748011</stp>
+        <tr r="A34" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3196376130</v>
+        <stp/>
+        <stp>BDP|8981524345193400069</stp>
+        <tr r="A55" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2889904405</v>
+        <stp/>
+        <stp>BDP|6997637703183996833</stp>
+        <tr r="A32" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3433178554</v>
+        <stp/>
+        <stp>BDP|7742218746449740375</stp>
+        <tr r="A60" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...858552437</v>
+        <stp/>
+        <stp>BDP|9792240063095700300</stp>
+        <tr r="A39" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...740134530</v>
+        <stp/>
+        <stp>BDP|1334685853374241225</stp>
+        <tr r="A8" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3631665207</v>
+        <stp/>
+        <stp>BDP|6510712120427439075</stp>
+        <tr r="A53" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4172603526</v>
+        <stp/>
+        <stp>BDP|4885176276204005324</stp>
+        <tr r="A15" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2859371430</v>
+        <stp/>
+        <stp>BDP|5782899560156190878</stp>
+        <tr r="A5" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2673761495</v>
+        <stp/>
+        <stp>BDP|7289970549218609732</stp>
+        <tr r="A35" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3940929863</v>
+        <stp/>
+        <stp>BDP|4417221575907574320</stp>
+        <tr r="A40" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1869280306</v>
+        <stp/>
+        <stp>BDP|2014726128879931875</stp>
+        <tr r="A62" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1426970709</v>
+        <stp/>
+        <stp>BDP|3655763009874617792</stp>
+        <tr r="A4" s="2"/>
+        <tr r="A65" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2119276039</v>
+        <stp/>
+        <stp>BDP|3680543656812378162</stp>
+        <tr r="A46" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...4031525555</v>
+        <stp/>
+        <stp>BDP|1876407964754142634</stp>
+        <tr r="A19" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1395794858</v>
+        <stp/>
+        <stp>BDP|1705036615307892561</stp>
+        <tr r="A36" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3845914969</v>
+        <stp/>
+        <stp>BDP|2476236621006459635</stp>
+        <tr r="A18" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3374797087</v>
+        <stp/>
+        <stp>BDP|4165191264600239185</stp>
+        <tr r="A27" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3751224291</v>
+        <stp/>
+        <stp>BDP|7693004606172951648</stp>
+        <tr r="A14" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...2000404234</v>
+        <stp/>
+        <stp>BDP|46440937035644945</stp>
+        <tr r="A57" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1552977524</v>
+        <stp/>
+        <stp>BDP|759652040990359502</stp>
+        <tr r="A47" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...1303771699</v>
+        <stp/>
+        <stp>BDP|603001011811840233</stp>
+        <tr r="A23" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3714108468</v>
+        <stp/>
+        <stp>BDP|663111848569316533</stp>
+        <tr r="A38" s="2"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="3Q2026"/>
+      <sheetName val="4Q2026"/>
+      <sheetName val="List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Shimamura Co Ltd</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2020,521 +2444,521 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="26.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="5" customWidth="1"/>
     <col min="8" max="248" width="9" style="5"/>
-    <col min="249" max="249" width="5.625" style="5" customWidth="1"/>
+    <col min="249" max="249" width="5.5703125" style="5" customWidth="1"/>
     <col min="250" max="250" width="9" style="5"/>
-    <col min="251" max="251" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="9" style="5"/>
     <col min="253" max="253" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="254" max="254" width="29.625" style="5" customWidth="1"/>
+    <col min="254" max="254" width="29.5703125" style="5" customWidth="1"/>
     <col min="255" max="255" width="9" style="5" customWidth="1"/>
     <col min="256" max="504" width="9" style="5"/>
-    <col min="505" max="505" width="5.625" style="5" customWidth="1"/>
+    <col min="505" max="505" width="5.5703125" style="5" customWidth="1"/>
     <col min="506" max="506" width="9" style="5"/>
-    <col min="507" max="507" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="508" max="508" width="9" style="5"/>
     <col min="509" max="509" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="510" max="510" width="29.625" style="5" customWidth="1"/>
+    <col min="510" max="510" width="29.5703125" style="5" customWidth="1"/>
     <col min="511" max="511" width="9" style="5" customWidth="1"/>
     <col min="512" max="760" width="9" style="5"/>
-    <col min="761" max="761" width="5.625" style="5" customWidth="1"/>
+    <col min="761" max="761" width="5.5703125" style="5" customWidth="1"/>
     <col min="762" max="762" width="9" style="5"/>
-    <col min="763" max="763" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="763" max="763" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="764" max="764" width="9" style="5"/>
     <col min="765" max="765" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="766" max="766" width="29.625" style="5" customWidth="1"/>
+    <col min="766" max="766" width="29.5703125" style="5" customWidth="1"/>
     <col min="767" max="767" width="9" style="5" customWidth="1"/>
     <col min="768" max="1016" width="9" style="5"/>
-    <col min="1017" max="1017" width="5.625" style="5" customWidth="1"/>
+    <col min="1017" max="1017" width="5.5703125" style="5" customWidth="1"/>
     <col min="1018" max="1018" width="9" style="5"/>
-    <col min="1019" max="1019" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1019" max="1019" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="1020" max="1020" width="9" style="5"/>
     <col min="1021" max="1021" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1022" max="1022" width="29.625" style="5" customWidth="1"/>
+    <col min="1022" max="1022" width="29.5703125" style="5" customWidth="1"/>
     <col min="1023" max="1023" width="9" style="5" customWidth="1"/>
     <col min="1024" max="1272" width="9" style="5"/>
-    <col min="1273" max="1273" width="5.625" style="5" customWidth="1"/>
+    <col min="1273" max="1273" width="5.5703125" style="5" customWidth="1"/>
     <col min="1274" max="1274" width="9" style="5"/>
-    <col min="1275" max="1275" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1275" max="1275" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="1276" max="1276" width="9" style="5"/>
     <col min="1277" max="1277" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1278" max="1278" width="29.625" style="5" customWidth="1"/>
+    <col min="1278" max="1278" width="29.5703125" style="5" customWidth="1"/>
     <col min="1279" max="1279" width="9" style="5" customWidth="1"/>
     <col min="1280" max="1528" width="9" style="5"/>
-    <col min="1529" max="1529" width="5.625" style="5" customWidth="1"/>
+    <col min="1529" max="1529" width="5.5703125" style="5" customWidth="1"/>
     <col min="1530" max="1530" width="9" style="5"/>
-    <col min="1531" max="1531" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1531" max="1531" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="1532" max="1532" width="9" style="5"/>
     <col min="1533" max="1533" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1534" max="1534" width="29.625" style="5" customWidth="1"/>
+    <col min="1534" max="1534" width="29.5703125" style="5" customWidth="1"/>
     <col min="1535" max="1535" width="9" style="5" customWidth="1"/>
     <col min="1536" max="1784" width="9" style="5"/>
-    <col min="1785" max="1785" width="5.625" style="5" customWidth="1"/>
+    <col min="1785" max="1785" width="5.5703125" style="5" customWidth="1"/>
     <col min="1786" max="1786" width="9" style="5"/>
-    <col min="1787" max="1787" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="1787" max="1787" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="1788" max="1788" width="9" style="5"/>
     <col min="1789" max="1789" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="1790" max="1790" width="29.625" style="5" customWidth="1"/>
+    <col min="1790" max="1790" width="29.5703125" style="5" customWidth="1"/>
     <col min="1791" max="1791" width="9" style="5" customWidth="1"/>
     <col min="1792" max="2040" width="9" style="5"/>
-    <col min="2041" max="2041" width="5.625" style="5" customWidth="1"/>
+    <col min="2041" max="2041" width="5.5703125" style="5" customWidth="1"/>
     <col min="2042" max="2042" width="9" style="5"/>
-    <col min="2043" max="2043" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2043" max="2043" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2044" max="2044" width="9" style="5"/>
     <col min="2045" max="2045" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2046" max="2046" width="29.625" style="5" customWidth="1"/>
+    <col min="2046" max="2046" width="29.5703125" style="5" customWidth="1"/>
     <col min="2047" max="2047" width="9" style="5" customWidth="1"/>
     <col min="2048" max="2296" width="9" style="5"/>
-    <col min="2297" max="2297" width="5.625" style="5" customWidth="1"/>
+    <col min="2297" max="2297" width="5.5703125" style="5" customWidth="1"/>
     <col min="2298" max="2298" width="9" style="5"/>
-    <col min="2299" max="2299" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2299" max="2299" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2300" max="2300" width="9" style="5"/>
     <col min="2301" max="2301" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2302" max="2302" width="29.625" style="5" customWidth="1"/>
+    <col min="2302" max="2302" width="29.5703125" style="5" customWidth="1"/>
     <col min="2303" max="2303" width="9" style="5" customWidth="1"/>
     <col min="2304" max="2552" width="9" style="5"/>
-    <col min="2553" max="2553" width="5.625" style="5" customWidth="1"/>
+    <col min="2553" max="2553" width="5.5703125" style="5" customWidth="1"/>
     <col min="2554" max="2554" width="9" style="5"/>
-    <col min="2555" max="2555" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2555" max="2555" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2556" max="2556" width="9" style="5"/>
     <col min="2557" max="2557" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2558" max="2558" width="29.625" style="5" customWidth="1"/>
+    <col min="2558" max="2558" width="29.5703125" style="5" customWidth="1"/>
     <col min="2559" max="2559" width="9" style="5" customWidth="1"/>
     <col min="2560" max="2808" width="9" style="5"/>
-    <col min="2809" max="2809" width="5.625" style="5" customWidth="1"/>
+    <col min="2809" max="2809" width="5.5703125" style="5" customWidth="1"/>
     <col min="2810" max="2810" width="9" style="5"/>
-    <col min="2811" max="2811" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2811" max="2811" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2812" max="2812" width="9" style="5"/>
     <col min="2813" max="2813" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="2814" max="2814" width="29.625" style="5" customWidth="1"/>
+    <col min="2814" max="2814" width="29.5703125" style="5" customWidth="1"/>
     <col min="2815" max="2815" width="9" style="5" customWidth="1"/>
     <col min="2816" max="3064" width="9" style="5"/>
-    <col min="3065" max="3065" width="5.625" style="5" customWidth="1"/>
+    <col min="3065" max="3065" width="5.5703125" style="5" customWidth="1"/>
     <col min="3066" max="3066" width="9" style="5"/>
-    <col min="3067" max="3067" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3067" max="3067" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3068" max="3068" width="9" style="5"/>
     <col min="3069" max="3069" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3070" max="3070" width="29.625" style="5" customWidth="1"/>
+    <col min="3070" max="3070" width="29.5703125" style="5" customWidth="1"/>
     <col min="3071" max="3071" width="9" style="5" customWidth="1"/>
     <col min="3072" max="3320" width="9" style="5"/>
-    <col min="3321" max="3321" width="5.625" style="5" customWidth="1"/>
+    <col min="3321" max="3321" width="5.5703125" style="5" customWidth="1"/>
     <col min="3322" max="3322" width="9" style="5"/>
-    <col min="3323" max="3323" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3323" max="3323" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3324" max="3324" width="9" style="5"/>
     <col min="3325" max="3325" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3326" max="3326" width="29.625" style="5" customWidth="1"/>
+    <col min="3326" max="3326" width="29.5703125" style="5" customWidth="1"/>
     <col min="3327" max="3327" width="9" style="5" customWidth="1"/>
     <col min="3328" max="3576" width="9" style="5"/>
-    <col min="3577" max="3577" width="5.625" style="5" customWidth="1"/>
+    <col min="3577" max="3577" width="5.5703125" style="5" customWidth="1"/>
     <col min="3578" max="3578" width="9" style="5"/>
-    <col min="3579" max="3579" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3579" max="3579" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3580" max="3580" width="9" style="5"/>
     <col min="3581" max="3581" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3582" max="3582" width="29.625" style="5" customWidth="1"/>
+    <col min="3582" max="3582" width="29.5703125" style="5" customWidth="1"/>
     <col min="3583" max="3583" width="9" style="5" customWidth="1"/>
     <col min="3584" max="3832" width="9" style="5"/>
-    <col min="3833" max="3833" width="5.625" style="5" customWidth="1"/>
+    <col min="3833" max="3833" width="5.5703125" style="5" customWidth="1"/>
     <col min="3834" max="3834" width="9" style="5"/>
-    <col min="3835" max="3835" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3835" max="3835" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3836" max="3836" width="9" style="5"/>
     <col min="3837" max="3837" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3838" max="3838" width="29.625" style="5" customWidth="1"/>
+    <col min="3838" max="3838" width="29.5703125" style="5" customWidth="1"/>
     <col min="3839" max="3839" width="9" style="5" customWidth="1"/>
     <col min="3840" max="4088" width="9" style="5"/>
-    <col min="4089" max="4089" width="5.625" style="5" customWidth="1"/>
+    <col min="4089" max="4089" width="5.5703125" style="5" customWidth="1"/>
     <col min="4090" max="4090" width="9" style="5"/>
-    <col min="4091" max="4091" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4091" max="4091" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4092" max="4092" width="9" style="5"/>
     <col min="4093" max="4093" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4094" max="4094" width="29.625" style="5" customWidth="1"/>
+    <col min="4094" max="4094" width="29.5703125" style="5" customWidth="1"/>
     <col min="4095" max="4095" width="9" style="5" customWidth="1"/>
     <col min="4096" max="4344" width="9" style="5"/>
-    <col min="4345" max="4345" width="5.625" style="5" customWidth="1"/>
+    <col min="4345" max="4345" width="5.5703125" style="5" customWidth="1"/>
     <col min="4346" max="4346" width="9" style="5"/>
-    <col min="4347" max="4347" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4347" max="4347" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4348" max="4348" width="9" style="5"/>
     <col min="4349" max="4349" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4350" max="4350" width="29.625" style="5" customWidth="1"/>
+    <col min="4350" max="4350" width="29.5703125" style="5" customWidth="1"/>
     <col min="4351" max="4351" width="9" style="5" customWidth="1"/>
     <col min="4352" max="4600" width="9" style="5"/>
-    <col min="4601" max="4601" width="5.625" style="5" customWidth="1"/>
+    <col min="4601" max="4601" width="5.5703125" style="5" customWidth="1"/>
     <col min="4602" max="4602" width="9" style="5"/>
-    <col min="4603" max="4603" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4603" max="4603" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4604" max="4604" width="9" style="5"/>
     <col min="4605" max="4605" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4606" max="4606" width="29.625" style="5" customWidth="1"/>
+    <col min="4606" max="4606" width="29.5703125" style="5" customWidth="1"/>
     <col min="4607" max="4607" width="9" style="5" customWidth="1"/>
     <col min="4608" max="4856" width="9" style="5"/>
-    <col min="4857" max="4857" width="5.625" style="5" customWidth="1"/>
+    <col min="4857" max="4857" width="5.5703125" style="5" customWidth="1"/>
     <col min="4858" max="4858" width="9" style="5"/>
-    <col min="4859" max="4859" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="4859" max="4859" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4860" max="4860" width="9" style="5"/>
     <col min="4861" max="4861" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="4862" max="4862" width="29.625" style="5" customWidth="1"/>
+    <col min="4862" max="4862" width="29.5703125" style="5" customWidth="1"/>
     <col min="4863" max="4863" width="9" style="5" customWidth="1"/>
     <col min="4864" max="5112" width="9" style="5"/>
-    <col min="5113" max="5113" width="5.625" style="5" customWidth="1"/>
+    <col min="5113" max="5113" width="5.5703125" style="5" customWidth="1"/>
     <col min="5114" max="5114" width="9" style="5"/>
-    <col min="5115" max="5115" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5115" max="5115" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5116" max="5116" width="9" style="5"/>
     <col min="5117" max="5117" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5118" max="5118" width="29.625" style="5" customWidth="1"/>
+    <col min="5118" max="5118" width="29.5703125" style="5" customWidth="1"/>
     <col min="5119" max="5119" width="9" style="5" customWidth="1"/>
     <col min="5120" max="5368" width="9" style="5"/>
-    <col min="5369" max="5369" width="5.625" style="5" customWidth="1"/>
+    <col min="5369" max="5369" width="5.5703125" style="5" customWidth="1"/>
     <col min="5370" max="5370" width="9" style="5"/>
-    <col min="5371" max="5371" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5371" max="5371" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5372" max="5372" width="9" style="5"/>
     <col min="5373" max="5373" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5374" max="5374" width="29.625" style="5" customWidth="1"/>
+    <col min="5374" max="5374" width="29.5703125" style="5" customWidth="1"/>
     <col min="5375" max="5375" width="9" style="5" customWidth="1"/>
     <col min="5376" max="5624" width="9" style="5"/>
-    <col min="5625" max="5625" width="5.625" style="5" customWidth="1"/>
+    <col min="5625" max="5625" width="5.5703125" style="5" customWidth="1"/>
     <col min="5626" max="5626" width="9" style="5"/>
-    <col min="5627" max="5627" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5627" max="5627" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5628" max="5628" width="9" style="5"/>
     <col min="5629" max="5629" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5630" max="5630" width="29.625" style="5" customWidth="1"/>
+    <col min="5630" max="5630" width="29.5703125" style="5" customWidth="1"/>
     <col min="5631" max="5631" width="9" style="5" customWidth="1"/>
     <col min="5632" max="5880" width="9" style="5"/>
-    <col min="5881" max="5881" width="5.625" style="5" customWidth="1"/>
+    <col min="5881" max="5881" width="5.5703125" style="5" customWidth="1"/>
     <col min="5882" max="5882" width="9" style="5"/>
-    <col min="5883" max="5883" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="5883" max="5883" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5884" max="5884" width="9" style="5"/>
     <col min="5885" max="5885" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="5886" max="5886" width="29.625" style="5" customWidth="1"/>
+    <col min="5886" max="5886" width="29.5703125" style="5" customWidth="1"/>
     <col min="5887" max="5887" width="9" style="5" customWidth="1"/>
     <col min="5888" max="6136" width="9" style="5"/>
-    <col min="6137" max="6137" width="5.625" style="5" customWidth="1"/>
+    <col min="6137" max="6137" width="5.5703125" style="5" customWidth="1"/>
     <col min="6138" max="6138" width="9" style="5"/>
-    <col min="6139" max="6139" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6139" max="6139" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6140" max="6140" width="9" style="5"/>
     <col min="6141" max="6141" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6142" max="6142" width="29.625" style="5" customWidth="1"/>
+    <col min="6142" max="6142" width="29.5703125" style="5" customWidth="1"/>
     <col min="6143" max="6143" width="9" style="5" customWidth="1"/>
     <col min="6144" max="6392" width="9" style="5"/>
-    <col min="6393" max="6393" width="5.625" style="5" customWidth="1"/>
+    <col min="6393" max="6393" width="5.5703125" style="5" customWidth="1"/>
     <col min="6394" max="6394" width="9" style="5"/>
-    <col min="6395" max="6395" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6395" max="6395" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6396" max="6396" width="9" style="5"/>
     <col min="6397" max="6397" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6398" max="6398" width="29.625" style="5" customWidth="1"/>
+    <col min="6398" max="6398" width="29.5703125" style="5" customWidth="1"/>
     <col min="6399" max="6399" width="9" style="5" customWidth="1"/>
     <col min="6400" max="6648" width="9" style="5"/>
-    <col min="6649" max="6649" width="5.625" style="5" customWidth="1"/>
+    <col min="6649" max="6649" width="5.5703125" style="5" customWidth="1"/>
     <col min="6650" max="6650" width="9" style="5"/>
-    <col min="6651" max="6651" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6651" max="6651" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6652" max="6652" width="9" style="5"/>
     <col min="6653" max="6653" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6654" max="6654" width="29.625" style="5" customWidth="1"/>
+    <col min="6654" max="6654" width="29.5703125" style="5" customWidth="1"/>
     <col min="6655" max="6655" width="9" style="5" customWidth="1"/>
     <col min="6656" max="6904" width="9" style="5"/>
-    <col min="6905" max="6905" width="5.625" style="5" customWidth="1"/>
+    <col min="6905" max="6905" width="5.5703125" style="5" customWidth="1"/>
     <col min="6906" max="6906" width="9" style="5"/>
-    <col min="6907" max="6907" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6907" max="6907" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6908" max="6908" width="9" style="5"/>
     <col min="6909" max="6909" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="6910" max="6910" width="29.625" style="5" customWidth="1"/>
+    <col min="6910" max="6910" width="29.5703125" style="5" customWidth="1"/>
     <col min="6911" max="6911" width="9" style="5" customWidth="1"/>
     <col min="6912" max="7160" width="9" style="5"/>
-    <col min="7161" max="7161" width="5.625" style="5" customWidth="1"/>
+    <col min="7161" max="7161" width="5.5703125" style="5" customWidth="1"/>
     <col min="7162" max="7162" width="9" style="5"/>
-    <col min="7163" max="7163" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7163" max="7163" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7164" max="7164" width="9" style="5"/>
     <col min="7165" max="7165" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7166" max="7166" width="29.625" style="5" customWidth="1"/>
+    <col min="7166" max="7166" width="29.5703125" style="5" customWidth="1"/>
     <col min="7167" max="7167" width="9" style="5" customWidth="1"/>
     <col min="7168" max="7416" width="9" style="5"/>
-    <col min="7417" max="7417" width="5.625" style="5" customWidth="1"/>
+    <col min="7417" max="7417" width="5.5703125" style="5" customWidth="1"/>
     <col min="7418" max="7418" width="9" style="5"/>
-    <col min="7419" max="7419" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7419" max="7419" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7420" max="7420" width="9" style="5"/>
     <col min="7421" max="7421" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7422" max="7422" width="29.625" style="5" customWidth="1"/>
+    <col min="7422" max="7422" width="29.5703125" style="5" customWidth="1"/>
     <col min="7423" max="7423" width="9" style="5" customWidth="1"/>
     <col min="7424" max="7672" width="9" style="5"/>
-    <col min="7673" max="7673" width="5.625" style="5" customWidth="1"/>
+    <col min="7673" max="7673" width="5.5703125" style="5" customWidth="1"/>
     <col min="7674" max="7674" width="9" style="5"/>
-    <col min="7675" max="7675" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7675" max="7675" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7676" max="7676" width="9" style="5"/>
     <col min="7677" max="7677" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7678" max="7678" width="29.625" style="5" customWidth="1"/>
+    <col min="7678" max="7678" width="29.5703125" style="5" customWidth="1"/>
     <col min="7679" max="7679" width="9" style="5" customWidth="1"/>
     <col min="7680" max="7928" width="9" style="5"/>
-    <col min="7929" max="7929" width="5.625" style="5" customWidth="1"/>
+    <col min="7929" max="7929" width="5.5703125" style="5" customWidth="1"/>
     <col min="7930" max="7930" width="9" style="5"/>
-    <col min="7931" max="7931" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7931" max="7931" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7932" max="7932" width="9" style="5"/>
     <col min="7933" max="7933" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="7934" max="7934" width="29.625" style="5" customWidth="1"/>
+    <col min="7934" max="7934" width="29.5703125" style="5" customWidth="1"/>
     <col min="7935" max="7935" width="9" style="5" customWidth="1"/>
     <col min="7936" max="8184" width="9" style="5"/>
-    <col min="8185" max="8185" width="5.625" style="5" customWidth="1"/>
+    <col min="8185" max="8185" width="5.5703125" style="5" customWidth="1"/>
     <col min="8186" max="8186" width="9" style="5"/>
-    <col min="8187" max="8187" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8187" max="8187" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8188" max="8188" width="9" style="5"/>
     <col min="8189" max="8189" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8190" max="8190" width="29.625" style="5" customWidth="1"/>
+    <col min="8190" max="8190" width="29.5703125" style="5" customWidth="1"/>
     <col min="8191" max="8191" width="9" style="5" customWidth="1"/>
     <col min="8192" max="8440" width="9" style="5"/>
-    <col min="8441" max="8441" width="5.625" style="5" customWidth="1"/>
+    <col min="8441" max="8441" width="5.5703125" style="5" customWidth="1"/>
     <col min="8442" max="8442" width="9" style="5"/>
-    <col min="8443" max="8443" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8443" max="8443" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8444" max="8444" width="9" style="5"/>
     <col min="8445" max="8445" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8446" max="8446" width="29.625" style="5" customWidth="1"/>
+    <col min="8446" max="8446" width="29.5703125" style="5" customWidth="1"/>
     <col min="8447" max="8447" width="9" style="5" customWidth="1"/>
     <col min="8448" max="8696" width="9" style="5"/>
-    <col min="8697" max="8697" width="5.625" style="5" customWidth="1"/>
+    <col min="8697" max="8697" width="5.5703125" style="5" customWidth="1"/>
     <col min="8698" max="8698" width="9" style="5"/>
-    <col min="8699" max="8699" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8699" max="8699" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8700" max="8700" width="9" style="5"/>
     <col min="8701" max="8701" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8702" max="8702" width="29.625" style="5" customWidth="1"/>
+    <col min="8702" max="8702" width="29.5703125" style="5" customWidth="1"/>
     <col min="8703" max="8703" width="9" style="5" customWidth="1"/>
     <col min="8704" max="8952" width="9" style="5"/>
-    <col min="8953" max="8953" width="5.625" style="5" customWidth="1"/>
+    <col min="8953" max="8953" width="5.5703125" style="5" customWidth="1"/>
     <col min="8954" max="8954" width="9" style="5"/>
-    <col min="8955" max="8955" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8955" max="8955" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8956" max="8956" width="9" style="5"/>
     <col min="8957" max="8957" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="8958" max="8958" width="29.625" style="5" customWidth="1"/>
+    <col min="8958" max="8958" width="29.5703125" style="5" customWidth="1"/>
     <col min="8959" max="8959" width="9" style="5" customWidth="1"/>
     <col min="8960" max="9208" width="9" style="5"/>
-    <col min="9209" max="9209" width="5.625" style="5" customWidth="1"/>
+    <col min="9209" max="9209" width="5.5703125" style="5" customWidth="1"/>
     <col min="9210" max="9210" width="9" style="5"/>
-    <col min="9211" max="9211" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9211" max="9211" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9212" max="9212" width="9" style="5"/>
     <col min="9213" max="9213" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9214" max="9214" width="29.625" style="5" customWidth="1"/>
+    <col min="9214" max="9214" width="29.5703125" style="5" customWidth="1"/>
     <col min="9215" max="9215" width="9" style="5" customWidth="1"/>
     <col min="9216" max="9464" width="9" style="5"/>
-    <col min="9465" max="9465" width="5.625" style="5" customWidth="1"/>
+    <col min="9465" max="9465" width="5.5703125" style="5" customWidth="1"/>
     <col min="9466" max="9466" width="9" style="5"/>
-    <col min="9467" max="9467" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9467" max="9467" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9468" max="9468" width="9" style="5"/>
     <col min="9469" max="9469" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9470" max="9470" width="29.625" style="5" customWidth="1"/>
+    <col min="9470" max="9470" width="29.5703125" style="5" customWidth="1"/>
     <col min="9471" max="9471" width="9" style="5" customWidth="1"/>
     <col min="9472" max="9720" width="9" style="5"/>
-    <col min="9721" max="9721" width="5.625" style="5" customWidth="1"/>
+    <col min="9721" max="9721" width="5.5703125" style="5" customWidth="1"/>
     <col min="9722" max="9722" width="9" style="5"/>
-    <col min="9723" max="9723" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9723" max="9723" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9724" max="9724" width="9" style="5"/>
     <col min="9725" max="9725" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9726" max="9726" width="29.625" style="5" customWidth="1"/>
+    <col min="9726" max="9726" width="29.5703125" style="5" customWidth="1"/>
     <col min="9727" max="9727" width="9" style="5" customWidth="1"/>
     <col min="9728" max="9976" width="9" style="5"/>
-    <col min="9977" max="9977" width="5.625" style="5" customWidth="1"/>
+    <col min="9977" max="9977" width="5.5703125" style="5" customWidth="1"/>
     <col min="9978" max="9978" width="9" style="5"/>
-    <col min="9979" max="9979" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9979" max="9979" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9980" max="9980" width="9" style="5"/>
     <col min="9981" max="9981" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="9982" max="9982" width="29.625" style="5" customWidth="1"/>
+    <col min="9982" max="9982" width="29.5703125" style="5" customWidth="1"/>
     <col min="9983" max="9983" width="9" style="5" customWidth="1"/>
     <col min="9984" max="10232" width="9" style="5"/>
-    <col min="10233" max="10233" width="5.625" style="5" customWidth="1"/>
+    <col min="10233" max="10233" width="5.5703125" style="5" customWidth="1"/>
     <col min="10234" max="10234" width="9" style="5"/>
-    <col min="10235" max="10235" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10235" max="10235" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10236" max="10236" width="9" style="5"/>
     <col min="10237" max="10237" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10238" max="10238" width="29.625" style="5" customWidth="1"/>
+    <col min="10238" max="10238" width="29.5703125" style="5" customWidth="1"/>
     <col min="10239" max="10239" width="9" style="5" customWidth="1"/>
     <col min="10240" max="10488" width="9" style="5"/>
-    <col min="10489" max="10489" width="5.625" style="5" customWidth="1"/>
+    <col min="10489" max="10489" width="5.5703125" style="5" customWidth="1"/>
     <col min="10490" max="10490" width="9" style="5"/>
-    <col min="10491" max="10491" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10491" max="10491" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10492" max="10492" width="9" style="5"/>
     <col min="10493" max="10493" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10494" max="10494" width="29.625" style="5" customWidth="1"/>
+    <col min="10494" max="10494" width="29.5703125" style="5" customWidth="1"/>
     <col min="10495" max="10495" width="9" style="5" customWidth="1"/>
     <col min="10496" max="10744" width="9" style="5"/>
-    <col min="10745" max="10745" width="5.625" style="5" customWidth="1"/>
+    <col min="10745" max="10745" width="5.5703125" style="5" customWidth="1"/>
     <col min="10746" max="10746" width="9" style="5"/>
-    <col min="10747" max="10747" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="10747" max="10747" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10748" max="10748" width="9" style="5"/>
     <col min="10749" max="10749" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="10750" max="10750" width="29.625" style="5" customWidth="1"/>
+    <col min="10750" max="10750" width="29.5703125" style="5" customWidth="1"/>
     <col min="10751" max="10751" width="9" style="5" customWidth="1"/>
     <col min="10752" max="11000" width="9" style="5"/>
-    <col min="11001" max="11001" width="5.625" style="5" customWidth="1"/>
+    <col min="11001" max="11001" width="5.5703125" style="5" customWidth="1"/>
     <col min="11002" max="11002" width="9" style="5"/>
-    <col min="11003" max="11003" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="11003" max="11003" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11004" max="11004" width="9" style="5"/>
     <col min="11005" max="11005" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11006" max="11006" width="29.625" style="5" customWidth="1"/>
+    <col min="11006" max="11006" width="29.5703125" style="5" customWidth="1"/>
     <col min="11007" max="11007" width="9" style="5" customWidth="1"/>
     <col min="11008" max="11256" width="9" style="5"/>
-    <col min="11257" max="11257" width="5.625" style="5" customWidth="1"/>
+    <col min="11257" max="11257" width="5.5703125" style="5" customWidth="1"/>
     <col min="11258" max="11258" width="9" style="5"/>
-    <col min="11259" max="11259" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="11259" max="11259" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11260" max="11260" width="9" style="5"/>
     <col min="11261" max="11261" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11262" max="11262" width="29.625" style="5" customWidth="1"/>
+    <col min="11262" max="11262" width="29.5703125" style="5" customWidth="1"/>
     <col min="11263" max="11263" width="9" style="5" customWidth="1"/>
     <col min="11264" max="11512" width="9" style="5"/>
-    <col min="11513" max="11513" width="5.625" style="5" customWidth="1"/>
+    <col min="11513" max="11513" width="5.5703125" style="5" customWidth="1"/>
     <col min="11514" max="11514" width="9" style="5"/>
-    <col min="11515" max="11515" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="11515" max="11515" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11516" max="11516" width="9" style="5"/>
     <col min="11517" max="11517" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11518" max="11518" width="29.625" style="5" customWidth="1"/>
+    <col min="11518" max="11518" width="29.5703125" style="5" customWidth="1"/>
     <col min="11519" max="11519" width="9" style="5" customWidth="1"/>
     <col min="11520" max="11768" width="9" style="5"/>
-    <col min="11769" max="11769" width="5.625" style="5" customWidth="1"/>
+    <col min="11769" max="11769" width="5.5703125" style="5" customWidth="1"/>
     <col min="11770" max="11770" width="9" style="5"/>
-    <col min="11771" max="11771" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="11771" max="11771" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11772" max="11772" width="9" style="5"/>
     <col min="11773" max="11773" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="11774" max="11774" width="29.625" style="5" customWidth="1"/>
+    <col min="11774" max="11774" width="29.5703125" style="5" customWidth="1"/>
     <col min="11775" max="11775" width="9" style="5" customWidth="1"/>
     <col min="11776" max="12024" width="9" style="5"/>
-    <col min="12025" max="12025" width="5.625" style="5" customWidth="1"/>
+    <col min="12025" max="12025" width="5.5703125" style="5" customWidth="1"/>
     <col min="12026" max="12026" width="9" style="5"/>
-    <col min="12027" max="12027" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12027" max="12027" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12028" max="12028" width="9" style="5"/>
     <col min="12029" max="12029" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12030" max="12030" width="29.625" style="5" customWidth="1"/>
+    <col min="12030" max="12030" width="29.5703125" style="5" customWidth="1"/>
     <col min="12031" max="12031" width="9" style="5" customWidth="1"/>
     <col min="12032" max="12280" width="9" style="5"/>
-    <col min="12281" max="12281" width="5.625" style="5" customWidth="1"/>
+    <col min="12281" max="12281" width="5.5703125" style="5" customWidth="1"/>
     <col min="12282" max="12282" width="9" style="5"/>
-    <col min="12283" max="12283" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12283" max="12283" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12284" max="12284" width="9" style="5"/>
     <col min="12285" max="12285" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12286" max="12286" width="29.625" style="5" customWidth="1"/>
+    <col min="12286" max="12286" width="29.5703125" style="5" customWidth="1"/>
     <col min="12287" max="12287" width="9" style="5" customWidth="1"/>
     <col min="12288" max="12536" width="9" style="5"/>
-    <col min="12537" max="12537" width="5.625" style="5" customWidth="1"/>
+    <col min="12537" max="12537" width="5.5703125" style="5" customWidth="1"/>
     <col min="12538" max="12538" width="9" style="5"/>
-    <col min="12539" max="12539" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12539" max="12539" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12540" max="12540" width="9" style="5"/>
     <col min="12541" max="12541" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12542" max="12542" width="29.625" style="5" customWidth="1"/>
+    <col min="12542" max="12542" width="29.5703125" style="5" customWidth="1"/>
     <col min="12543" max="12543" width="9" style="5" customWidth="1"/>
     <col min="12544" max="12792" width="9" style="5"/>
-    <col min="12793" max="12793" width="5.625" style="5" customWidth="1"/>
+    <col min="12793" max="12793" width="5.5703125" style="5" customWidth="1"/>
     <col min="12794" max="12794" width="9" style="5"/>
-    <col min="12795" max="12795" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12795" max="12795" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12796" max="12796" width="9" style="5"/>
     <col min="12797" max="12797" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="12798" max="12798" width="29.625" style="5" customWidth="1"/>
+    <col min="12798" max="12798" width="29.5703125" style="5" customWidth="1"/>
     <col min="12799" max="12799" width="9" style="5" customWidth="1"/>
     <col min="12800" max="13048" width="9" style="5"/>
-    <col min="13049" max="13049" width="5.625" style="5" customWidth="1"/>
+    <col min="13049" max="13049" width="5.5703125" style="5" customWidth="1"/>
     <col min="13050" max="13050" width="9" style="5"/>
-    <col min="13051" max="13051" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13051" max="13051" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13052" max="13052" width="9" style="5"/>
     <col min="13053" max="13053" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13054" max="13054" width="29.625" style="5" customWidth="1"/>
+    <col min="13054" max="13054" width="29.5703125" style="5" customWidth="1"/>
     <col min="13055" max="13055" width="9" style="5" customWidth="1"/>
     <col min="13056" max="13304" width="9" style="5"/>
-    <col min="13305" max="13305" width="5.625" style="5" customWidth="1"/>
+    <col min="13305" max="13305" width="5.5703125" style="5" customWidth="1"/>
     <col min="13306" max="13306" width="9" style="5"/>
-    <col min="13307" max="13307" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13307" max="13307" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13308" max="13308" width="9" style="5"/>
     <col min="13309" max="13309" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13310" max="13310" width="29.625" style="5" customWidth="1"/>
+    <col min="13310" max="13310" width="29.5703125" style="5" customWidth="1"/>
     <col min="13311" max="13311" width="9" style="5" customWidth="1"/>
     <col min="13312" max="13560" width="9" style="5"/>
-    <col min="13561" max="13561" width="5.625" style="5" customWidth="1"/>
+    <col min="13561" max="13561" width="5.5703125" style="5" customWidth="1"/>
     <col min="13562" max="13562" width="9" style="5"/>
-    <col min="13563" max="13563" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13563" max="13563" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13564" max="13564" width="9" style="5"/>
     <col min="13565" max="13565" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13566" max="13566" width="29.625" style="5" customWidth="1"/>
+    <col min="13566" max="13566" width="29.5703125" style="5" customWidth="1"/>
     <col min="13567" max="13567" width="9" style="5" customWidth="1"/>
     <col min="13568" max="13816" width="9" style="5"/>
-    <col min="13817" max="13817" width="5.625" style="5" customWidth="1"/>
+    <col min="13817" max="13817" width="5.5703125" style="5" customWidth="1"/>
     <col min="13818" max="13818" width="9" style="5"/>
-    <col min="13819" max="13819" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="13819" max="13819" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13820" max="13820" width="9" style="5"/>
     <col min="13821" max="13821" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="13822" max="13822" width="29.625" style="5" customWidth="1"/>
+    <col min="13822" max="13822" width="29.5703125" style="5" customWidth="1"/>
     <col min="13823" max="13823" width="9" style="5" customWidth="1"/>
     <col min="13824" max="14072" width="9" style="5"/>
-    <col min="14073" max="14073" width="5.625" style="5" customWidth="1"/>
+    <col min="14073" max="14073" width="5.5703125" style="5" customWidth="1"/>
     <col min="14074" max="14074" width="9" style="5"/>
-    <col min="14075" max="14075" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14075" max="14075" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14076" max="14076" width="9" style="5"/>
     <col min="14077" max="14077" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14078" max="14078" width="29.625" style="5" customWidth="1"/>
+    <col min="14078" max="14078" width="29.5703125" style="5" customWidth="1"/>
     <col min="14079" max="14079" width="9" style="5" customWidth="1"/>
     <col min="14080" max="14328" width="9" style="5"/>
-    <col min="14329" max="14329" width="5.625" style="5" customWidth="1"/>
+    <col min="14329" max="14329" width="5.5703125" style="5" customWidth="1"/>
     <col min="14330" max="14330" width="9" style="5"/>
-    <col min="14331" max="14331" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14331" max="14331" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14332" max="14332" width="9" style="5"/>
     <col min="14333" max="14333" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14334" max="14334" width="29.625" style="5" customWidth="1"/>
+    <col min="14334" max="14334" width="29.5703125" style="5" customWidth="1"/>
     <col min="14335" max="14335" width="9" style="5" customWidth="1"/>
     <col min="14336" max="14584" width="9" style="5"/>
-    <col min="14585" max="14585" width="5.625" style="5" customWidth="1"/>
+    <col min="14585" max="14585" width="5.5703125" style="5" customWidth="1"/>
     <col min="14586" max="14586" width="9" style="5"/>
-    <col min="14587" max="14587" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14587" max="14587" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14588" max="14588" width="9" style="5"/>
     <col min="14589" max="14589" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14590" max="14590" width="29.625" style="5" customWidth="1"/>
+    <col min="14590" max="14590" width="29.5703125" style="5" customWidth="1"/>
     <col min="14591" max="14591" width="9" style="5" customWidth="1"/>
     <col min="14592" max="14840" width="9" style="5"/>
-    <col min="14841" max="14841" width="5.625" style="5" customWidth="1"/>
+    <col min="14841" max="14841" width="5.5703125" style="5" customWidth="1"/>
     <col min="14842" max="14842" width="9" style="5"/>
-    <col min="14843" max="14843" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="14843" max="14843" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="14844" max="14844" width="9" style="5"/>
     <col min="14845" max="14845" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="14846" max="14846" width="29.625" style="5" customWidth="1"/>
+    <col min="14846" max="14846" width="29.5703125" style="5" customWidth="1"/>
     <col min="14847" max="14847" width="9" style="5" customWidth="1"/>
     <col min="14848" max="15096" width="9" style="5"/>
-    <col min="15097" max="15097" width="5.625" style="5" customWidth="1"/>
+    <col min="15097" max="15097" width="5.5703125" style="5" customWidth="1"/>
     <col min="15098" max="15098" width="9" style="5"/>
-    <col min="15099" max="15099" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="15099" max="15099" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15100" max="15100" width="9" style="5"/>
     <col min="15101" max="15101" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15102" max="15102" width="29.625" style="5" customWidth="1"/>
+    <col min="15102" max="15102" width="29.5703125" style="5" customWidth="1"/>
     <col min="15103" max="15103" width="9" style="5" customWidth="1"/>
     <col min="15104" max="15352" width="9" style="5"/>
-    <col min="15353" max="15353" width="5.625" style="5" customWidth="1"/>
+    <col min="15353" max="15353" width="5.5703125" style="5" customWidth="1"/>
     <col min="15354" max="15354" width="9" style="5"/>
-    <col min="15355" max="15355" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="15355" max="15355" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15356" max="15356" width="9" style="5"/>
     <col min="15357" max="15357" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15358" max="15358" width="29.625" style="5" customWidth="1"/>
+    <col min="15358" max="15358" width="29.5703125" style="5" customWidth="1"/>
     <col min="15359" max="15359" width="9" style="5" customWidth="1"/>
     <col min="15360" max="15608" width="9" style="5"/>
-    <col min="15609" max="15609" width="5.625" style="5" customWidth="1"/>
+    <col min="15609" max="15609" width="5.5703125" style="5" customWidth="1"/>
     <col min="15610" max="15610" width="9" style="5"/>
-    <col min="15611" max="15611" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="15611" max="15611" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15612" max="15612" width="9" style="5"/>
     <col min="15613" max="15613" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15614" max="15614" width="29.625" style="5" customWidth="1"/>
+    <col min="15614" max="15614" width="29.5703125" style="5" customWidth="1"/>
     <col min="15615" max="15615" width="9" style="5" customWidth="1"/>
     <col min="15616" max="15864" width="9" style="5"/>
-    <col min="15865" max="15865" width="5.625" style="5" customWidth="1"/>
+    <col min="15865" max="15865" width="5.5703125" style="5" customWidth="1"/>
     <col min="15866" max="15866" width="9" style="5"/>
-    <col min="15867" max="15867" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="15867" max="15867" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15868" max="15868" width="9" style="5"/>
     <col min="15869" max="15869" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="15870" max="15870" width="29.625" style="5" customWidth="1"/>
+    <col min="15870" max="15870" width="29.5703125" style="5" customWidth="1"/>
     <col min="15871" max="15871" width="9" style="5" customWidth="1"/>
     <col min="15872" max="16120" width="9" style="5"/>
-    <col min="16121" max="16121" width="5.625" style="5" customWidth="1"/>
+    <col min="16121" max="16121" width="5.5703125" style="5" customWidth="1"/>
     <col min="16122" max="16122" width="9" style="5"/>
-    <col min="16123" max="16123" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="16123" max="16123" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="16124" max="16124" width="9" style="5"/>
     <col min="16125" max="16125" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="16126" max="16126" width="29.625" style="5" customWidth="1"/>
+    <col min="16126" max="16126" width="29.5703125" style="5" customWidth="1"/>
     <col min="16127" max="16127" width="9" style="5" customWidth="1"/>
     <col min="16128" max="16384" width="9" style="5"/>
   </cols>
@@ -3674,4 +4098,606 @@
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D0F163-72D4-4EE0-9CCC-689B5A816B9F}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="str">
+        <f>'[1]3Q2026'!$C$2</f>
+        <v>Shimamura Co Ltd</v>
+      </c>
+      <c r="B2" s="12">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="str">
+        <f>PROPER(_xll.BDP(B3&amp;" JT Equity","NAME"))</f>
+        <v>And St Hd Co Ltd</v>
+      </c>
+      <c r="B3" s="17">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="str">
+        <f>PROPER(_xll.BDP(B4&amp;" JT Equity","NAME"))</f>
+        <v>Pal Group Holdings Co Ltd</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="str">
+        <f>PROPER(_xll.BDP(B5&amp;" JT Equity","NAME"))</f>
+        <v>Honeys Holdings Co Ltd</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="str">
+        <f>PROPER(_xll.BDP(B6&amp;" JT Equity","NAME"))</f>
+        <v>Tokyo Base Co Ltd</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="str">
+        <f>PROPER(_xll.BDP(B7&amp;" JT Equity","NAME"))</f>
+        <v>Baroque Japan Ltd</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="str">
+        <f>PROPER(_xll.BDP(B8&amp;" JT Equity","NAME"))</f>
+        <v>Yutori Inc</v>
+      </c>
+      <c r="B8" s="17">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="str">
+        <f>PROPER(_xll.BDP(B9&amp;" JT Equity","NAME"))</f>
+        <v>Right On Co Ltd</v>
+      </c>
+      <c r="B9" s="17">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="str">
+        <f>PROPER(_xll.BDP(B10&amp;" JT Equity","NAME"))</f>
+        <v>Nishimatsuya Chain Co Ltd</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="str">
+        <f>PROPER(_xll.BDP(B11&amp;" JT Equity","NAME"))</f>
+        <v>United Arrows Ltd</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="str">
+        <f>PROPER(_xll.BDP(B12&amp;" JT Equity","NAME"))</f>
+        <v>Aoki Holdings Inc</v>
+      </c>
+      <c r="B12" s="17">
+        <v>8214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="str">
+        <f>PROPER(_xll.BDP(B13&amp;" JT Equity","NAME"))</f>
+        <v>Aoyama Trading Co Ltd</v>
+      </c>
+      <c r="B13" s="17">
+        <v>8219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="str">
+        <f>PROPER(_xll.BDP(B14&amp;" JT Equity","NAME"))</f>
+        <v>Shimamura Co Ltd</v>
+      </c>
+      <c r="B14" s="17">
+        <v>8227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="str">
+        <f>PROPER(_xll.BDP(B15&amp;" JT Equity","NAME"))</f>
+        <v>Fast Retailing Co Ltd</v>
+      </c>
+      <c r="B15" s="12">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="str">
+        <f>PROPER(_xll.BDP(B16&amp;" JT Equity","NAME"))</f>
+        <v>Wacoal Holdings Corp</v>
+      </c>
+      <c r="B16" s="17">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="str">
+        <f>PROPER(_xll.BDP(B17&amp;" JT Equity","NAME"))</f>
+        <v>Tsi Holdings Co Ltd</v>
+      </c>
+      <c r="B17" s="17">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="str">
+        <f>PROPER(_xll.BDP(B18&amp;" JT Equity","NAME"))</f>
+        <v>World Co Ltd</v>
+      </c>
+      <c r="B18" s="17">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="str">
+        <f>PROPER(_xll.BDP(B19&amp;" JT Equity","NAME"))</f>
+        <v>Sanyo Shokai Ltd</v>
+      </c>
+      <c r="B19" s="17">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="str">
+        <f>PROPER(_xll.BDP(B20&amp;" JT Equity","NAME"))</f>
+        <v>Onward Holdings Co Ltd</v>
+      </c>
+      <c r="B20" s="12">
+        <v>8016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="str">
+        <f>PROPER(_xll.BDP(B21&amp;" JT Equity","NAME"))</f>
+        <v>Edion Corp</v>
+      </c>
+      <c r="B21" s="17">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="str">
+        <f>PROPER(_xll.BDP(B22&amp;" JT Equity","NAME"))</f>
+        <v>Bic Camera Inc</v>
+      </c>
+      <c r="B22" s="17">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="str">
+        <f>PROPER(_xll.BDP(B23&amp;" JT Equity","NAME"))</f>
+        <v>Kojima Co Ltd</v>
+      </c>
+      <c r="B23" s="17">
+        <v>7513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="str">
+        <f>PROPER(_xll.BDP(B24&amp;" JT Equity","NAME"))</f>
+        <v>K'S Holdings Corp</v>
+      </c>
+      <c r="B24" s="17">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="str">
+        <f>PROPER(_xll.BDP(B25&amp;" JT Equity","NAME"))</f>
+        <v>Nitori Holdings Co Ltd</v>
+      </c>
+      <c r="B25" s="12">
+        <v>9843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="str">
+        <f>PROPER(_xll.BDP(B26&amp;" JT Equity","NAME"))</f>
+        <v>Nafco Co Ltd</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="str">
+        <f>PROPER(_xll.BDP(B27&amp;" JT Equity","NAME"))</f>
+        <v>Dcm Holdings Co Ltd</v>
+      </c>
+      <c r="B27" s="17">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="str">
+        <f>PROPER(_xll.BDP(B28&amp;" JT Equity","NAME"))</f>
+        <v>Joyful Honda Co Ltd</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="str">
+        <f>PROPER(_xll.BDP(B29&amp;" JT Equity","NAME"))</f>
+        <v>Lixil Viva Corp</v>
+      </c>
+      <c r="B29" s="17">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="str">
+        <f>PROPER(_xll.BDP(B30&amp;" JT Equity","NAME"))</f>
+        <v>Kohnan Shoji Co Ltd</v>
+      </c>
+      <c r="B30" s="17">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="str">
+        <f>PROPER(_xll.BDP(B31&amp;" JT Equity","NAME"))</f>
+        <v>Handsman Co Ltd</v>
+      </c>
+      <c r="B31" s="17">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="str">
+        <f>PROPER(_xll.BDP(B32&amp;" JT Equity","NAME"))</f>
+        <v>Keiyo Co Ltd</v>
+      </c>
+      <c r="B32" s="17">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="str">
+        <f>PROPER(_xll.BDP(B33&amp;" JT Equity","NAME"))</f>
+        <v>Komeri Co Ltd</v>
+      </c>
+      <c r="B33" s="17">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="str">
+        <f>PROPER(_xll.BDP(B34&amp;" JT Equity","NAME"))</f>
+        <v>Autobacs Seven Co Ltd</v>
+      </c>
+      <c r="B34" s="22">
+        <v>9832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="str">
+        <f>PROPER(_xll.BDP(B35&amp;" JT Equity","NAME"))</f>
+        <v>Cawachi Ltd</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="str">
+        <f>PROPER(_xll.BDP(B36&amp;" JT Equity","NAME"))</f>
+        <v>Qol Holdings Co Ltd</v>
+      </c>
+      <c r="B36" s="17">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="str">
+        <f>PROPER(_xll.BDP(B37&amp;" JT Equity","NAME"))</f>
+        <v>Matsukiyococokara &amp; Co</v>
+      </c>
+      <c r="B37" s="17">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="str">
+        <f>PROPER(_xll.BDP(B38&amp;" JT Equity","NAME"))</f>
+        <v>Welcia Holdings Co Ltd</v>
+      </c>
+      <c r="B38" s="17">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="str">
+        <f>PROPER(_xll.BDP(B39&amp;" JT Equity","NAME"))</f>
+        <v>Create Sd Holdings Co</v>
+      </c>
+      <c r="B39" s="17">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="str">
+        <f>PROPER(_xll.BDP(B40&amp;" JT Equity","NAME"))</f>
+        <v>Cosmos Pharmaceutical Corp</v>
+      </c>
+      <c r="B40" s="17">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="str">
+        <f>PROPER(_xll.BDP(B41&amp;" JT Equity","NAME"))</f>
+        <v>Tsuruha Holdings Inc</v>
+      </c>
+      <c r="B41" s="17">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="str">
+        <f>PROPER(_xll.BDP(B42&amp;" JT Equity","NAME"))</f>
+        <v>Kusuri No Aoki Holdings Co L</v>
+      </c>
+      <c r="B42" s="17">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="str">
+        <f>PROPER(_xll.BDP(B43&amp;" JT Equity","NAME"))</f>
+        <v>Sugi Holdings Co Ltd</v>
+      </c>
+      <c r="B43" s="17">
+        <v>7649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="str">
+        <f>PROPER(_xll.BDP(B44&amp;" JT Equity","NAME"))</f>
+        <v>Yakuodo Holdings Co Ltd</v>
+      </c>
+      <c r="B44" s="17">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="str">
+        <f>PROPER(_xll.BDP(B45&amp;" JT Equity","NAME"))</f>
+        <v>Genky Drugstores Co Ltd</v>
+      </c>
+      <c r="B45" s="17">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="str">
+        <f>PROPER(_xll.BDP(B46&amp;" JT Equity","NAME"))</f>
+        <v>Ain Holdings Inc</v>
+      </c>
+      <c r="B46" s="17">
+        <v>9627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="str">
+        <f>PROPER(_xll.BDP(B47&amp;" JT Equity","NAME"))</f>
+        <v>Sundrug Co Ltd</v>
+      </c>
+      <c r="B47" s="12">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="str">
+        <f>PROPER(_xll.BDP(B48&amp;" JT Equity","NAME"))</f>
+        <v>Intermestic Inc</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="str">
+        <f>PROPER(_xll.BDP(B49&amp;" JT Equity","NAME"))</f>
+        <v>Jins Holdings Inc</v>
+      </c>
+      <c r="B49" s="17">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="str">
+        <f>PROPER(_xll.BDP(B50&amp;" JT Equity","NAME"))</f>
+        <v>Yondoshi Holdings Inc</v>
+      </c>
+      <c r="B50" s="12">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="str">
+        <f>PROPER(_xll.BDP(B51&amp;" JT Equity","NAME"))</f>
+        <v>Alpen Co Ltd</v>
+      </c>
+      <c r="B51" s="17">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="str">
+        <f>PROPER(_xll.BDP(B52&amp;" JT Equity","NAME"))</f>
+        <v>Himaraya Co Ltd</v>
+      </c>
+      <c r="B52" s="17">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="str">
+        <f>PROPER(_xll.BDP(B53&amp;" JT Equity","NAME"))</f>
+        <v>Xebio Holdings Co Ltd</v>
+      </c>
+      <c r="B53" s="17">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="str">
+        <f>PROPER(_xll.BDP(B54&amp;" JT Equity","NAME"))</f>
+        <v>Abc-Mart Inc</v>
+      </c>
+      <c r="B54" s="27">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="str">
+        <f>PROPER(_xll.BDP(B55&amp;" JT Equity","NAME"))</f>
+        <v>Gfoot Co Ltd</v>
+      </c>
+      <c r="B55" s="17">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="str">
+        <f>PROPER(_xll.BDP(B56&amp;" JT Equity","NAME"))</f>
+        <v>Chiyoda Co Ltd</v>
+      </c>
+      <c r="B56" s="12">
+        <v>8185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="str">
+        <f>PROPER(_xll.BDP(B57&amp;" JT Equity","NAME"))</f>
+        <v>Askul Corp</v>
+      </c>
+      <c r="B57" s="17">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="str">
+        <f>PROPER(_xll.BDP(B58&amp;" JT Equity","NAME"))</f>
+        <v>Seria Co Ltd</v>
+      </c>
+      <c r="B58" s="17">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="str">
+        <f>PROPER(_xll.BDP(B59&amp;" JT Equity","NAME"))</f>
+        <v>Monotaro Co Ltd</v>
+      </c>
+      <c r="B59" s="17">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="str">
+        <f>PROPER(_xll.BDP(B60&amp;" JT Equity","NAME"))</f>
+        <v>Asahi Co Ltd</v>
+      </c>
+      <c r="B60" s="17">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="str">
+        <f>PROPER(_xll.BDP(B61&amp;" JT Equity","NAME"))</f>
+        <v>Ryohin Keikaku Co Ltd</v>
+      </c>
+      <c r="B61" s="17">
+        <v>7453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="str">
+        <f>PROPER(_xll.BDP(B62&amp;" JT Equity","NAME"))</f>
+        <v>Workman Co Ltd</v>
+      </c>
+      <c r="B62" s="17">
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="str">
+        <f>PROPER(_xll.BDP(B63&amp;" JT Equity","NAME"))</f>
+        <v>Sac'S Bar Holdings Inc</v>
+      </c>
+      <c r="B63" s="17">
+        <v>9990</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="str">
+        <f>PROPER(_xll.BDP(B64&amp;" JT Equity","NAME"))</f>
+        <v>Belluna Co Ltd</v>
+      </c>
+      <c r="B64" s="12">
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="str">
+        <f>PROPER(_xll.BDP(B65&amp;" JT Equity","NAME"))</f>
+        <v>Pal Group Holdings Co Ltd</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/monthly_date.xlsx
+++ b/monthly_date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apworkspace-my.sharepoint.com/personal/ivan_cheung_arrowpointfund_com/Documents/Documents/arrowpoint/winter/calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{69135DD7-9D86-43BF-AC89-D638C2B16CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C7241D-66D5-4C6E-B744-0F9B0BCBC66C}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{69135DD7-9D86-43BF-AC89-D638C2B16CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010CBA9C-F595-4FF0-A9DB-16FADFEF4E7A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-21885" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月次公表日" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="上場会社マスタ">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1743,378 +1743,447 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3507055564</v>
+        <v>#N/A Requesting Data...2757708172</v>
         <stp/>
         <stp>BDP|18083475014624507367</stp>
+        <tr r="B11" s="1"/>
         <tr r="A10" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4103571652</v>
+        <v>#N/A Requesting Data...2540853690</v>
         <stp/>
         <stp>BDP|14812490795736493557</stp>
+        <tr r="B55" s="1"/>
         <tr r="A54" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3655197983</v>
+        <v>#N/A Requesting Data...1813804690</v>
         <stp/>
         <stp>BDP|12744499455529794147</stp>
+        <tr r="B62" s="1"/>
         <tr r="A61" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3687659971</v>
+        <v>#N/A Requesting Data...2899442964</v>
         <stp/>
         <stp>BDP|14044835812962581457</stp>
+        <tr r="B64" s="1"/>
         <tr r="A63" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4008707668</v>
+        <v>#N/A Requesting Data...1943586811</v>
         <stp/>
         <stp>BDP|14649196029856330999</stp>
+        <tr r="B44" s="1"/>
         <tr r="A43" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3561379823</v>
+        <v>#N/A Requesting Data...4055030217</v>
         <stp/>
         <stp>BDP|16525854230382120724</stp>
+        <tr r="B38" s="1"/>
         <tr r="A37" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2445638983</v>
+        <v>#N/A Requesting Data...2332947758</v>
         <stp/>
         <stp>BDP|11407861001459124988</stp>
+        <tr r="B51" s="1"/>
         <tr r="A50" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1598876600</v>
+        <v>#N/A Requesting Data...2505851956</v>
         <stp/>
         <stp>BDP|15566191380037797274</stp>
+        <tr r="B32" s="1"/>
         <tr r="A31" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1109702912</v>
+        <v>#N/A Requesting Data...2162350536</v>
         <stp/>
         <stp>BDP|16496014007271893911</stp>
+        <tr r="B21" s="1"/>
         <tr r="A20" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3212631521</v>
+        <v>#N/A Requesting Data...3238740234</v>
         <stp/>
         <stp>BDP|12213626047508210652</stp>
+        <tr r="B13" s="1"/>
         <tr r="A12" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...805568718</v>
+        <v>#N/A Requesting Data...2841608805</v>
         <stp/>
         <stp>BDP|10471830480747203896</stp>
+        <tr r="B14" s="1"/>
         <tr r="A13" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3846379814</v>
+        <v>#N/A Requesting Data...3020619296</v>
         <stp/>
         <stp>BDP|16602492221879451594</stp>
+        <tr r="B8" s="1"/>
         <tr r="A7" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1296011620</v>
+        <v>#N/A Requesting Data...2117776611</v>
         <stp/>
         <stp>BDP|11508101779802223827</stp>
+        <tr r="B59" s="1"/>
         <tr r="A58" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3649032284</v>
+        <v>#N/A Requesting Data...3973387370</v>
         <stp/>
         <stp>BDP|12030176234668942597</stp>
+        <tr r="B42" s="1"/>
         <tr r="A41" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...779511138</v>
+        <v>#N/A Requesting Data...2628051292</v>
         <stp/>
         <stp>BDP|12838893093347392684</stp>
+        <tr r="B45" s="1"/>
         <tr r="A44" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1308654656</v>
+        <v>#N/A Requesting Data...3752286290</v>
         <stp/>
         <stp>BDP|14265706845320162581</stp>
+        <tr r="B12" s="1"/>
         <tr r="A11" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3701046834</v>
+        <v>#N/A Requesting Data...2760827674</v>
         <stp/>
         <stp>BDP|13073799924670139505</stp>
+        <tr r="B22" s="1"/>
         <tr r="A21" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3112818626</v>
+        <v>#N/A Requesting Data...3334335623</v>
         <stp/>
         <stp>BDP|18392705351339731099</stp>
+        <tr r="B34" s="1"/>
         <tr r="A33" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3774025600</v>
+        <v>#N/A N/A</v>
+        <stp/>
+        <stp>BDP|16527746156561310450</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3564891290</v>
         <stp/>
         <stp>BDP|17357052608086525092</stp>
+        <tr r="B30" s="1"/>
         <tr r="A29" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2061493410</v>
+        <v>#N/A Requesting Data...2537824337</v>
         <stp/>
         <stp>BDP|16670582688733498957</stp>
+        <tr r="B46" s="1"/>
         <tr r="A45" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1041025928</v>
+        <v>#N/A Requesting Data...3532750799</v>
         <stp/>
         <stp>BDP|17848846180165275392</stp>
+        <tr r="B65" s="1"/>
         <tr r="A64" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1784913833</v>
+        <v>#N/A Requesting Data...1989675269</v>
         <stp/>
         <stp>BDP|14561676242356162630</stp>
+        <tr r="B43" s="1"/>
         <tr r="A42" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2750937951</v>
+        <v>#N/A Requesting Data...2732916417</v>
         <stp/>
         <stp>BDP|18030463608118610300</stp>
+        <tr r="B52" s="1"/>
         <tr r="A51" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4162689366</v>
+        <v>#N/A Requesting Data...4227188484</v>
         <stp/>
         <stp>BDP|16379611668154623645</stp>
+        <tr r="B27" s="1"/>
         <tr r="A26" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...913489090</v>
+        <v>#N/A Requesting Data...3877149714</v>
         <stp/>
         <stp>BDP|12044760646082345709</stp>
+        <tr r="B26" s="1"/>
         <tr r="A25" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3826311214</v>
+        <v>#N/A Requesting Data...4115575696</v>
         <stp/>
         <stp>BDP|11127784051361459790</stp>
+        <tr r="B31" s="1"/>
         <tr r="A30" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2461601759</v>
+        <v>#N/A Requesting Data...2040415592</v>
         <stp/>
         <stp>BDP|14966291489769729297</stp>
+        <tr r="B53" s="1"/>
         <tr r="A52" s="2"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2835947829</v>
+        <v>#N/A Requesting Data...3342087338</v>
         <stp/>
         <stp>BDP|8736234751562823175</stp>
+        <tr r="B23" s="1"/>
         <tr r="A22" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2018945103</v>
+        <v>#N/A Requesting Data...2302490250</v>
         <stp/>
         <stp>BDP|9344155389534466869</stp>
+        <tr r="B10" s="1"/>
         <tr r="A9" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3455608822</v>
+        <v>#N/A Requesting Data...2169899469</v>
         <stp/>
         <stp>BDP|4475682470950788967</stp>
+        <tr r="B18" s="1"/>
         <tr r="A17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2646070211</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BDP|9756712153372088512</stp>
+        <tr r="B4" s="1"/>
         <tr r="A3" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3399837814</v>
+        <v>#N/A Requesting Data...4072683618</v>
         <stp/>
         <stp>BDP|7070149180572717184</stp>
+        <tr r="B60" s="1"/>
         <tr r="A59" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2975337687</v>
+        <v>#N/A Requesting Data...2899020367</v>
         <stp/>
         <stp>BDP|9669477189830481884</stp>
+        <tr r="B17" s="1"/>
         <tr r="A16" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3138272087</v>
+        <v>#N/A Requesting Data...2942367635</v>
         <stp/>
         <stp>BDP|5651248673375356870</stp>
+        <tr r="B49" s="1"/>
         <tr r="A48" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2642904987</v>
+        <v>#N/A Requesting Data...3678940385</v>
         <stp/>
         <stp>BDP|9149916515707517832</stp>
+        <tr r="B25" s="1"/>
         <tr r="A24" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4154965525</v>
+        <v>#N/A Requesting Data...2363114183</v>
         <stp/>
         <stp>BDP|4470590533068760245</stp>
+        <tr r="B29" s="1"/>
         <tr r="A28" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3813699681</v>
+        <v>#N/A Requesting Data...2028342773</v>
         <stp/>
         <stp>BDP|2600966883259415264</stp>
+        <tr r="B57" s="1"/>
         <tr r="A56" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2970194212</v>
+        <v>#N/A Requesting Data...3494557215</v>
         <stp/>
         <stp>BDP|3433436396086237110</stp>
+        <tr r="B50" s="1"/>
         <tr r="A49" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3062394498</v>
+        <v>#N/A Requesting Data...1963449823</v>
         <stp/>
         <stp>BDP|8516368140744822152</stp>
+        <tr r="B7" s="1"/>
         <tr r="A6" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...910061943</v>
+        <v>#N/A Requesting Data...3849610744</v>
         <stp/>
         <stp>BDP|8792799607055748011</stp>
+        <tr r="B35" s="1"/>
         <tr r="A34" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3196376130</v>
+        <v>#N/A Requesting Data...2767808230</v>
         <stp/>
         <stp>BDP|8981524345193400069</stp>
+        <tr r="B56" s="1"/>
         <tr r="A55" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2889904405</v>
+        <v>#N/A Requesting Data...2372372746</v>
         <stp/>
         <stp>BDP|6997637703183996833</stp>
+        <tr r="B33" s="1"/>
         <tr r="A32" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3433178554</v>
+        <v>#N/A Requesting Data...2713855764</v>
         <stp/>
         <stp>BDP|7742218746449740375</stp>
+        <tr r="B61" s="1"/>
         <tr r="A60" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...858552437</v>
+        <v>#N/A Requesting Data...3404087534</v>
         <stp/>
         <stp>BDP|9792240063095700300</stp>
+        <tr r="B40" s="1"/>
         <tr r="A39" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...740134530</v>
+        <v>#N/A Requesting Data...2008661492</v>
         <stp/>
         <stp>BDP|1334685853374241225</stp>
+        <tr r="B9" s="1"/>
         <tr r="A8" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3631665207</v>
+        <v>#N/A Requesting Data...2032631760</v>
         <stp/>
         <stp>BDP|6510712120427439075</stp>
+        <tr r="B54" s="1"/>
         <tr r="A53" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4172603526</v>
+        <v>#N/A Requesting Data...2944980056</v>
         <stp/>
         <stp>BDP|4885176276204005324</stp>
+        <tr r="B16" s="1"/>
         <tr r="A15" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2859371430</v>
+        <v>#N/A Requesting Data...3674986957</v>
         <stp/>
         <stp>BDP|5782899560156190878</stp>
+        <tr r="B6" s="1"/>
         <tr r="A5" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2673761495</v>
+        <v>#N/A Requesting Data...2467629039</v>
         <stp/>
         <stp>BDP|7289970549218609732</stp>
+        <tr r="B36" s="1"/>
         <tr r="A35" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3940929863</v>
+        <v>#N/A Requesting Data...3535304179</v>
         <stp/>
         <stp>BDP|4417221575907574320</stp>
+        <tr r="B41" s="1"/>
         <tr r="A40" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1869280306</v>
+        <v>#N/A Requesting Data...3832451874</v>
         <stp/>
         <stp>BDP|2014726128879931875</stp>
+        <tr r="B63" s="1"/>
         <tr r="A62" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1426970709</v>
+        <v>#N/A Requesting Data...2089422424</v>
         <stp/>
         <stp>BDP|3655763009874617792</stp>
+        <tr r="B66" s="1"/>
+        <tr r="B5" s="1"/>
         <tr r="A4" s="2"/>
         <tr r="A65" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2119276039</v>
+        <v>#N/A Requesting Data...2575473939</v>
         <stp/>
         <stp>BDP|3680543656812378162</stp>
+        <tr r="B47" s="1"/>
         <tr r="A46" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4031525555</v>
+        <v>#N/A Requesting Data...4264080067</v>
         <stp/>
         <stp>BDP|1876407964754142634</stp>
+        <tr r="B20" s="1"/>
         <tr r="A19" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1395794858</v>
+        <v>#N/A Requesting Data...4165021736</v>
         <stp/>
         <stp>BDP|1705036615307892561</stp>
+        <tr r="B37" s="1"/>
         <tr r="A36" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3845914969</v>
+        <v>#N/A Requesting Data...2543918715</v>
         <stp/>
         <stp>BDP|2476236621006459635</stp>
+        <tr r="B19" s="1"/>
         <tr r="A18" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3374797087</v>
+        <v>#N/A Requesting Data...3904642414</v>
         <stp/>
         <stp>BDP|4165191264600239185</stp>
+        <tr r="B28" s="1"/>
         <tr r="A27" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751224291</v>
+        <v>#N/A Requesting Data...1890964569</v>
         <stp/>
         <stp>BDP|7693004606172951648</stp>
+        <tr r="B15" s="1"/>
         <tr r="A14" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2000404234</v>
+        <v>#N/A Requesting Data...1991098097</v>
         <stp/>
         <stp>BDP|46440937035644945</stp>
+        <tr r="B58" s="1"/>
         <tr r="A57" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1552977524</v>
+        <v>#N/A Requesting Data...3560387381</v>
         <stp/>
         <stp>BDP|759652040990359502</stp>
+        <tr r="B48" s="1"/>
         <tr r="A47" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1303771699</v>
+        <v>#N/A Requesting Data...4155358340</v>
         <stp/>
         <stp>BDP|603001011811840233</stp>
+        <tr r="B24" s="1"/>
         <tr r="A23" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3714108468</v>
+        <v>#N/A Requesting Data...3458240651</v>
         <stp/>
         <stp>BDP|663111848569316533</stp>
+        <tr r="B39" s="1"/>
         <tr r="A38" s="2"/>
       </tp>
     </main>
@@ -2442,15 +2511,16 @@
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="11"/>
     <col min="4" max="4" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
@@ -2963,13 +3033,13 @@
     <col min="16128" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="13.5" customHeight="1">
+    <row r="1" spans="2:11" ht="13.5" customHeight="1">
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="3:8" ht="13.5" customHeight="1">
+    <row r="2" spans="2:11" ht="13.5" customHeight="1">
       <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3056,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="13.5" customHeight="1">
+    <row r="3" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B3" s="1" t="str">
+        <f>PROPER(_xll.BDP(C3&amp;" JT Equity","NAME"))</f>
+        <v>Pan Pacific International Ho</v>
+      </c>
       <c r="C3" s="12">
         <v>7532</v>
       </c>
@@ -3005,8 +3079,16 @@
       <c r="H3" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="13.5" customHeight="1">
+      <c r="K3" s="5" t="str">
+        <f>B3</f>
+        <v>Pan Pacific International Ho</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B4" s="1" t="str">
+        <f>PROPER(_xll.BDP(C4&amp;" JT Equity","NAME"))</f>
+        <v>And St Hd Co Ltd</v>
+      </c>
       <c r="C4" s="17">
         <v>2685</v>
       </c>
@@ -3023,7 +3105,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="13.5" customHeight="1">
+    <row r="5" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B5" s="1" t="str">
+        <f>PROPER(_xll.BDP(C5&amp;" JT Equity","NAME"))</f>
+        <v>Pal Group Holdings Co Ltd</v>
+      </c>
       <c r="C5" s="17">
         <v>2726</v>
       </c>
@@ -3040,7 +3126,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="13.5" customHeight="1">
+    <row r="6" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B6" s="1" t="str">
+        <f>PROPER(_xll.BDP(C6&amp;" JT Equity","NAME"))</f>
+        <v>Honeys Holdings Co Ltd</v>
+      </c>
       <c r="C6" s="17">
         <v>2792</v>
       </c>
@@ -3057,7 +3147,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="13.5" customHeight="1">
+    <row r="7" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B7" s="1" t="str">
+        <f>PROPER(_xll.BDP(C7&amp;" JT Equity","NAME"))</f>
+        <v>Tokyo Base Co Ltd</v>
+      </c>
       <c r="C7" s="17">
         <v>3415</v>
       </c>
@@ -3074,7 +3168,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="13.5" customHeight="1">
+    <row r="8" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B8" s="1" t="str">
+        <f>PROPER(_xll.BDP(C8&amp;" JT Equity","NAME"))</f>
+        <v>Baroque Japan Ltd</v>
+      </c>
       <c r="C8" s="17">
         <v>3548</v>
       </c>
@@ -3091,7 +3189,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="13.5" customHeight="1">
+    <row r="9" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B9" s="1" t="str">
+        <f>PROPER(_xll.BDP(C9&amp;" JT Equity","NAME"))</f>
+        <v>Yutori Inc</v>
+      </c>
       <c r="C9" s="17">
         <v>5892</v>
       </c>
@@ -3108,7 +3210,11 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="13.5" customHeight="1">
+    <row r="10" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B10" s="1" t="str">
+        <f>PROPER(_xll.BDP(C10&amp;" JT Equity","NAME"))</f>
+        <v>Right On Co Ltd</v>
+      </c>
       <c r="C10" s="17">
         <v>7445</v>
       </c>
@@ -3125,7 +3231,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="13.5" customHeight="1">
+    <row r="11" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B11" s="1" t="str">
+        <f>PROPER(_xll.BDP(C11&amp;" JT Equity","NAME"))</f>
+        <v>Nishimatsuya Chain Co Ltd</v>
+      </c>
       <c r="C11" s="17">
         <v>7545</v>
       </c>
@@ -3142,7 +3252,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="13.5" customHeight="1">
+    <row r="12" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B12" s="1" t="str">
+        <f>PROPER(_xll.BDP(C12&amp;" JT Equity","NAME"))</f>
+        <v>United Arrows Ltd</v>
+      </c>
       <c r="C12" s="17">
         <v>7606</v>
       </c>
@@ -3159,7 +3273,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="13.5" customHeight="1">
+    <row r="13" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B13" s="1" t="str">
+        <f>PROPER(_xll.BDP(C13&amp;" JT Equity","NAME"))</f>
+        <v>Aoki Holdings Inc</v>
+      </c>
       <c r="C13" s="17">
         <v>8214</v>
       </c>
@@ -3176,7 +3294,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="13.5" customHeight="1">
+    <row r="14" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B14" s="1" t="str">
+        <f>PROPER(_xll.BDP(C14&amp;" JT Equity","NAME"))</f>
+        <v>Aoyama Trading Co Ltd</v>
+      </c>
       <c r="C14" s="17">
         <v>8219</v>
       </c>
@@ -3193,7 +3315,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="13.5" customHeight="1">
+    <row r="15" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B15" s="1" t="str">
+        <f>PROPER(_xll.BDP(C15&amp;" JT Equity","NAME"))</f>
+        <v>Shimamura Co Ltd</v>
+      </c>
       <c r="C15" s="17">
         <v>8227</v>
       </c>
@@ -3210,7 +3336,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="13.5" customHeight="1">
+    <row r="16" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B16" s="1" t="str">
+        <f>PROPER(_xll.BDP(C16&amp;" JT Equity","NAME"))</f>
+        <v>Fast Retailing Co Ltd</v>
+      </c>
       <c r="C16" s="12">
         <v>9983</v>
       </c>
@@ -3227,7 +3357,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="13.15" customHeight="1">
+    <row r="17" spans="2:8" ht="13.15" customHeight="1">
+      <c r="B17" s="1" t="str">
+        <f>PROPER(_xll.BDP(C17&amp;" JT Equity","NAME"))</f>
+        <v>Wacoal Holdings Corp</v>
+      </c>
       <c r="C17" s="17">
         <v>3591</v>
       </c>
@@ -3247,7 +3381,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="13.5" customHeight="1">
+    <row r="18" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B18" s="1" t="str">
+        <f>PROPER(_xll.BDP(C18&amp;" JT Equity","NAME"))</f>
+        <v>Tsi Holdings Co Ltd</v>
+      </c>
       <c r="C18" s="17">
         <v>3608</v>
       </c>
@@ -3264,7 +3402,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="13.5" customHeight="1">
+    <row r="19" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B19" s="1" t="str">
+        <f>PROPER(_xll.BDP(C19&amp;" JT Equity","NAME"))</f>
+        <v>World Co Ltd</v>
+      </c>
       <c r="C19" s="17">
         <v>3612</v>
       </c>
@@ -3281,7 +3423,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="13.5" customHeight="1">
+    <row r="20" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B20" s="1" t="str">
+        <f>PROPER(_xll.BDP(C20&amp;" JT Equity","NAME"))</f>
+        <v>Sanyo Shokai Ltd</v>
+      </c>
       <c r="C20" s="17">
         <v>8011</v>
       </c>
@@ -3298,7 +3444,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="13.5" customHeight="1">
+    <row r="21" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B21" s="1" t="str">
+        <f>PROPER(_xll.BDP(C21&amp;" JT Equity","NAME"))</f>
+        <v>Onward Holdings Co Ltd</v>
+      </c>
       <c r="C21" s="12">
         <v>8016</v>
       </c>
@@ -3318,7 +3468,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="13.5" customHeight="1">
+    <row r="22" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B22" s="1" t="str">
+        <f>PROPER(_xll.BDP(C22&amp;" JT Equity","NAME"))</f>
+        <v>Edion Corp</v>
+      </c>
       <c r="C22" s="17">
         <v>2730</v>
       </c>
@@ -3338,7 +3492,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="13.5" customHeight="1">
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B23" s="1" t="str">
+        <f>PROPER(_xll.BDP(C23&amp;" JT Equity","NAME"))</f>
+        <v>Bic Camera Inc</v>
+      </c>
       <c r="C23" s="17">
         <v>3048</v>
       </c>
@@ -3355,7 +3513,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="13.5" customHeight="1">
+    <row r="24" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B24" s="1" t="str">
+        <f>PROPER(_xll.BDP(C24&amp;" JT Equity","NAME"))</f>
+        <v>Kojima Co Ltd</v>
+      </c>
       <c r="C24" s="17">
         <v>7513</v>
       </c>
@@ -3372,7 +3534,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="13.5" customHeight="1">
+    <row r="25" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B25" s="1" t="str">
+        <f>PROPER(_xll.BDP(C25&amp;" JT Equity","NAME"))</f>
+        <v>K'S Holdings Corp</v>
+      </c>
       <c r="C25" s="17">
         <v>8282</v>
       </c>
@@ -3389,7 +3555,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="13.5" customHeight="1">
+    <row r="26" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B26" s="1" t="str">
+        <f>PROPER(_xll.BDP(C26&amp;" JT Equity","NAME"))</f>
+        <v>Nitori Holdings Co Ltd</v>
+      </c>
       <c r="C26" s="12">
         <v>9843</v>
       </c>
@@ -3406,7 +3576,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="13.5" customHeight="1">
+    <row r="27" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B27" s="1" t="str">
+        <f>PROPER(_xll.BDP(C27&amp;" JT Equity","NAME"))</f>
+        <v>Nafco Co Ltd</v>
+      </c>
       <c r="C27" s="17">
         <v>2790</v>
       </c>
@@ -3423,7 +3597,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="13.5" customHeight="1">
+    <row r="28" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B28" s="1" t="str">
+        <f>PROPER(_xll.BDP(C28&amp;" JT Equity","NAME"))</f>
+        <v>Dcm Holdings Co Ltd</v>
+      </c>
       <c r="C28" s="17">
         <v>3050</v>
       </c>
@@ -3440,7 +3618,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="13.5" customHeight="1">
+    <row r="29" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B29" s="1" t="str">
+        <f>PROPER(_xll.BDP(C29&amp;" JT Equity","NAME"))</f>
+        <v>Joyful Honda Co Ltd</v>
+      </c>
       <c r="C29" s="17">
         <v>3191</v>
       </c>
@@ -3457,7 +3639,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="13.5" customHeight="1">
+    <row r="30" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B30" s="1" t="str">
+        <f>PROPER(_xll.BDP(C30&amp;" JT Equity","NAME"))</f>
+        <v>Lixil Viva Corp</v>
+      </c>
       <c r="C30" s="17">
         <v>3564</v>
       </c>
@@ -3474,7 +3660,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="13.5" customHeight="1">
+    <row r="31" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B31" s="1" t="str">
+        <f>PROPER(_xll.BDP(C31&amp;" JT Equity","NAME"))</f>
+        <v>Kohnan Shoji Co Ltd</v>
+      </c>
       <c r="C31" s="17">
         <v>7516</v>
       </c>
@@ -3491,7 +3681,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="13.5" customHeight="1">
+    <row r="32" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B32" s="1" t="str">
+        <f>PROPER(_xll.BDP(C32&amp;" JT Equity","NAME"))</f>
+        <v>Handsman Co Ltd</v>
+      </c>
       <c r="C32" s="17">
         <v>7636</v>
       </c>
@@ -3508,7 +3702,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="13.5" customHeight="1">
+    <row r="33" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B33" s="1" t="str">
+        <f>PROPER(_xll.BDP(C33&amp;" JT Equity","NAME"))</f>
+        <v>Keiyo Co Ltd</v>
+      </c>
       <c r="C33" s="17">
         <v>8168</v>
       </c>
@@ -3525,7 +3723,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="13.5" customHeight="1">
+    <row r="34" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B34" s="1" t="str">
+        <f>PROPER(_xll.BDP(C34&amp;" JT Equity","NAME"))</f>
+        <v>Komeri Co Ltd</v>
+      </c>
       <c r="C34" s="17">
         <v>8218</v>
       </c>
@@ -3542,7 +3744,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="13.5" customHeight="1">
+    <row r="35" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B35" s="1" t="str">
+        <f>PROPER(_xll.BDP(C35&amp;" JT Equity","NAME"))</f>
+        <v>Autobacs Seven Co Ltd</v>
+      </c>
       <c r="C35" s="22">
         <v>9832</v>
       </c>
@@ -3559,7 +3765,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="13.5" customHeight="1">
+    <row r="36" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B36" s="1" t="str">
+        <f>PROPER(_xll.BDP(C36&amp;" JT Equity","NAME"))</f>
+        <v>Cawachi Ltd</v>
+      </c>
       <c r="C36" s="17">
         <v>2664</v>
       </c>
@@ -3576,7 +3786,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="13.5" customHeight="1">
+    <row r="37" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B37" s="1" t="str">
+        <f>PROPER(_xll.BDP(C37&amp;" JT Equity","NAME"))</f>
+        <v>Qol Holdings Co Ltd</v>
+      </c>
       <c r="C37" s="17">
         <v>3034</v>
       </c>
@@ -3593,7 +3807,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="13.5" customHeight="1">
+    <row r="38" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B38" s="1" t="str">
+        <f>PROPER(_xll.BDP(C38&amp;" JT Equity","NAME"))</f>
+        <v>Matsukiyococokara &amp; Co</v>
+      </c>
       <c r="C38" s="17">
         <v>3088</v>
       </c>
@@ -3610,7 +3828,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="13.5" customHeight="1">
+    <row r="39" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B39" s="1" t="str">
+        <f>PROPER(_xll.BDP(C39&amp;" JT Equity","NAME"))</f>
+        <v>Welcia Holdings Co Ltd</v>
+      </c>
       <c r="C39" s="17">
         <v>3141</v>
       </c>
@@ -3627,7 +3849,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:8">
+    <row r="40" spans="2:8">
+      <c r="B40" s="1" t="str">
+        <f>PROPER(_xll.BDP(C40&amp;" JT Equity","NAME"))</f>
+        <v>Create Sd Holdings Co</v>
+      </c>
       <c r="C40" s="17">
         <v>3148</v>
       </c>
@@ -3644,7 +3870,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="13.5" customHeight="1">
+    <row r="41" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B41" s="1" t="str">
+        <f>PROPER(_xll.BDP(C41&amp;" JT Equity","NAME"))</f>
+        <v>Cosmos Pharmaceutical Corp</v>
+      </c>
       <c r="C41" s="17">
         <v>3349</v>
       </c>
@@ -3661,7 +3891,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="13.5" customHeight="1">
+    <row r="42" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B42" s="1" t="str">
+        <f>PROPER(_xll.BDP(C42&amp;" JT Equity","NAME"))</f>
+        <v>Tsuruha Holdings Inc</v>
+      </c>
       <c r="C42" s="17">
         <v>3391</v>
       </c>
@@ -3678,7 +3912,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="13.5" customHeight="1">
+    <row r="43" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B43" s="1" t="str">
+        <f>PROPER(_xll.BDP(C43&amp;" JT Equity","NAME"))</f>
+        <v>Kusuri No Aoki Holdings Co L</v>
+      </c>
       <c r="C43" s="17">
         <v>3549</v>
       </c>
@@ -3695,7 +3933,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="13.5" customHeight="1">
+    <row r="44" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B44" s="1" t="str">
+        <f>PROPER(_xll.BDP(C44&amp;" JT Equity","NAME"))</f>
+        <v>Sugi Holdings Co Ltd</v>
+      </c>
       <c r="C44" s="17">
         <v>7649</v>
       </c>
@@ -3712,7 +3954,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="3:8">
+    <row r="45" spans="2:8">
+      <c r="B45" s="1" t="str">
+        <f>PROPER(_xll.BDP(C45&amp;" JT Equity","NAME"))</f>
+        <v>Yakuodo Holdings Co Ltd</v>
+      </c>
       <c r="C45" s="17">
         <v>7679</v>
       </c>
@@ -3729,7 +3975,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="13.5" customHeight="1">
+    <row r="46" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B46" s="1" t="str">
+        <f>PROPER(_xll.BDP(C46&amp;" JT Equity","NAME"))</f>
+        <v>Genky Drugstores Co Ltd</v>
+      </c>
       <c r="C46" s="17">
         <v>9267</v>
       </c>
@@ -3746,7 +3996,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="13.5" customHeight="1" collapsed="1">
+    <row r="47" spans="2:8" ht="13.5" customHeight="1" collapsed="1">
+      <c r="B47" s="1" t="str">
+        <f>PROPER(_xll.BDP(C47&amp;" JT Equity","NAME"))</f>
+        <v>Ain Holdings Inc</v>
+      </c>
       <c r="C47" s="17">
         <v>9627</v>
       </c>
@@ -3766,7 +4020,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="13.5" customHeight="1">
+    <row r="48" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B48" s="1" t="str">
+        <f>PROPER(_xll.BDP(C48&amp;" JT Equity","NAME"))</f>
+        <v>Sundrug Co Ltd</v>
+      </c>
       <c r="C48" s="12">
         <v>9989</v>
       </c>
@@ -3783,7 +4041,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="13.5" customHeight="1">
+    <row r="49" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B49" s="1" t="str">
+        <f>PROPER(_xll.BDP(C49&amp;" JT Equity","NAME"))</f>
+        <v>Intermestic Inc</v>
+      </c>
       <c r="C49" s="17" t="s">
         <v>136</v>
       </c>
@@ -3800,7 +4062,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="13.5" customHeight="1">
+    <row r="50" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B50" s="1" t="str">
+        <f>PROPER(_xll.BDP(C50&amp;" JT Equity","NAME"))</f>
+        <v>Jins Holdings Inc</v>
+      </c>
       <c r="C50" s="17">
         <v>3046</v>
       </c>
@@ -3817,7 +4083,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="13.5" customHeight="1">
+    <row r="51" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B51" s="1" t="str">
+        <f>PROPER(_xll.BDP(C51&amp;" JT Equity","NAME"))</f>
+        <v>Yondoshi Holdings Inc</v>
+      </c>
       <c r="C51" s="12">
         <v>8008</v>
       </c>
@@ -3834,7 +4104,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="13.5" customHeight="1">
+    <row r="52" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B52" s="1" t="str">
+        <f>PROPER(_xll.BDP(C52&amp;" JT Equity","NAME"))</f>
+        <v>Alpen Co Ltd</v>
+      </c>
       <c r="C52" s="17">
         <v>3028</v>
       </c>
@@ -3851,7 +4125,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="13.5" customHeight="1">
+    <row r="53" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B53" s="1" t="str">
+        <f>PROPER(_xll.BDP(C53&amp;" JT Equity","NAME"))</f>
+        <v>Himaraya Co Ltd</v>
+      </c>
       <c r="C53" s="17">
         <v>7514</v>
       </c>
@@ -3868,7 +4146,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="13.5" customHeight="1">
+    <row r="54" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B54" s="1" t="str">
+        <f>PROPER(_xll.BDP(C54&amp;" JT Equity","NAME"))</f>
+        <v>Xebio Holdings Co Ltd</v>
+      </c>
       <c r="C54" s="17">
         <v>8281</v>
       </c>
@@ -3885,7 +4167,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="13.5" customHeight="1">
+    <row r="55" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B55" s="1" t="str">
+        <f>PROPER(_xll.BDP(C55&amp;" JT Equity","NAME"))</f>
+        <v>Abc-Mart Inc</v>
+      </c>
       <c r="C55" s="27">
         <v>2670</v>
       </c>
@@ -3905,7 +4191,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="13.5" customHeight="1">
+    <row r="56" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B56" s="1" t="str">
+        <f>PROPER(_xll.BDP(C56&amp;" JT Equity","NAME"))</f>
+        <v>Gfoot Co Ltd</v>
+      </c>
       <c r="C56" s="17">
         <v>2686</v>
       </c>
@@ -3922,7 +4212,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="13.5" customHeight="1">
+    <row r="57" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B57" s="1" t="str">
+        <f>PROPER(_xll.BDP(C57&amp;" JT Equity","NAME"))</f>
+        <v>Chiyoda Co Ltd</v>
+      </c>
       <c r="C57" s="12">
         <v>8185</v>
       </c>
@@ -3939,7 +4233,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="13.5" customHeight="1">
+    <row r="58" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B58" s="1" t="str">
+        <f>PROPER(_xll.BDP(C58&amp;" JT Equity","NAME"))</f>
+        <v>Askul Corp</v>
+      </c>
       <c r="C58" s="17">
         <v>2678</v>
       </c>
@@ -3956,7 +4254,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="13.5" customHeight="1">
+    <row r="59" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B59" s="1" t="str">
+        <f>PROPER(_xll.BDP(C59&amp;" JT Equity","NAME"))</f>
+        <v>Seria Co Ltd</v>
+      </c>
       <c r="C59" s="17">
         <v>2782</v>
       </c>
@@ -3973,7 +4275,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="13.5" customHeight="1">
+    <row r="60" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B60" s="1" t="str">
+        <f>PROPER(_xll.BDP(C60&amp;" JT Equity","NAME"))</f>
+        <v>Monotaro Co Ltd</v>
+      </c>
       <c r="C60" s="17">
         <v>3064</v>
       </c>
@@ -3990,7 +4296,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="13.5" customHeight="1">
+    <row r="61" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B61" s="1" t="str">
+        <f>PROPER(_xll.BDP(C61&amp;" JT Equity","NAME"))</f>
+        <v>Asahi Co Ltd</v>
+      </c>
       <c r="C61" s="17">
         <v>3333</v>
       </c>
@@ -4007,7 +4317,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="13.5" customHeight="1">
+    <row r="62" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B62" s="1" t="str">
+        <f>PROPER(_xll.BDP(C62&amp;" JT Equity","NAME"))</f>
+        <v>Ryohin Keikaku Co Ltd</v>
+      </c>
       <c r="C62" s="17">
         <v>7453</v>
       </c>
@@ -4027,7 +4341,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
+    <row r="63" spans="2:8">
+      <c r="B63" s="1" t="str">
+        <f>PROPER(_xll.BDP(C63&amp;" JT Equity","NAME"))</f>
+        <v>Workman Co Ltd</v>
+      </c>
       <c r="C63" s="17">
         <v>7564</v>
       </c>
@@ -4044,7 +4362,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="13.5" customHeight="1">
+    <row r="64" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B64" s="1" t="str">
+        <f>PROPER(_xll.BDP(C64&amp;" JT Equity","NAME"))</f>
+        <v>Sac'S Bar Holdings Inc</v>
+      </c>
       <c r="C64" s="17">
         <v>9990</v>
       </c>
@@ -4061,7 +4383,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="3:7" ht="13.5" customHeight="1">
+    <row r="65" spans="2:7" ht="13.5" customHeight="1">
+      <c r="B65" s="1" t="str">
+        <f>PROPER(_xll.BDP(C65&amp;" JT Equity","NAME"))</f>
+        <v>Belluna Co Ltd</v>
+      </c>
       <c r="C65" s="12">
         <v>9997</v>
       </c>
@@ -4078,7 +4404,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="2:7">
+      <c r="B66" s="1" t="str">
+        <f>PROPER(_xll.BDP(C66&amp;" JT Equity","NAME"))</f>
+        <v>Pal Group Holdings Co Ltd</v>
+      </c>
       <c r="C66" s="11">
         <v>2726</v>
       </c>
@@ -4104,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D0F163-72D4-4EE0-9CCC-689B5A816B9F}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
